--- a/data/FIGURE_and_SUPPLEMENT_parameter/fixed_general_parameter.xlsx
+++ b/data/FIGURE_and_SUPPLEMENT_parameter/fixed_general_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PROGNOSIS\multiagemodell\paper\Modelling-dynamics-of-SARS-CoV-2-pandemics-of-Germany\data\FIGURE_and_SUPPLEMENT_parameter_severity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\PROGNOSIS\multiagemodell\paper\Modelling-dynamics-of-SARS-CoV-2-pandemics-of-Germany\data\FIGURE_and_SUPPLEMENT_parameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10DCEB7-1D8A-4FD5-8424-B818E3BB935F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796245BF-0084-429C-9922-86FA12D1B626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{52D7ACCD-CA37-4AB8-A0B6-E82B858E7807}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{52D7ACCD-CA37-4AB8-A0B6-E82B858E7807}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed_general_parameter" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>r3</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>manuscript 11.1.23</t>
+  </si>
+  <si>
+    <t>dateallele_Wildtype</t>
+  </si>
+  <si>
+    <t>Yuri</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -432,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3294BF95-8277-4976-990E-21414986FA9D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +525,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
